--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -225,13 +225,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,12 +259,56 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,7 +323,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -290,6 +334,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,32 +354,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,10 +370,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,51 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -407,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,25 +421,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,157 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +614,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +696,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,39 +715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,137 +735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,9 +879,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,23 +893,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1287,7 +1271,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1319,7 +1303,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="12"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1321,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1369,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1387,375 +1371,603 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="4">
+        <v>1737</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1578</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1657</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="4">
+        <v>1685</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1506</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1591</v>
+      </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="13"/>
+      <c r="M4" s="4">
+        <v>12520</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12139</v>
+      </c>
+      <c r="O4" s="14">
+        <v>12383.7777777778</v>
+      </c>
     </row>
     <row r="5" ht="21.6" customHeight="1" spans="6:15">
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="4">
+        <v>1577</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1452</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1510.875</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="13"/>
+      <c r="M5" s="4">
+        <v>12014</v>
+      </c>
+      <c r="N5" s="4">
+        <v>11809</v>
+      </c>
+      <c r="O5" s="14">
+        <v>11917.25</v>
+      </c>
     </row>
     <row r="6" ht="21.6" customHeight="1" spans="6:15">
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="4">
+        <v>1131</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1077.8</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="13"/>
+      <c r="M6" s="4">
+        <v>8618</v>
+      </c>
+      <c r="N6" s="4">
+        <v>8266</v>
+      </c>
+      <c r="O6" s="14">
+        <v>8459.6</v>
+      </c>
     </row>
     <row r="7" ht="21.6" customHeight="1" spans="6:15">
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="4">
+        <v>1103</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1007</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1058</v>
+      </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="4" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="4">
+        <v>8318</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8278</v>
+      </c>
+      <c r="O7" s="14">
+        <v>8298</v>
+      </c>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="4">
+        <v>1246</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1126</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1184.9</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="4" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="4">
+        <v>9397</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9232</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9317.4</v>
+      </c>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="4">
+        <v>1207</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1059</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1125.92857142857</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="4">
+        <v>9005</v>
+      </c>
+      <c r="N9" s="4">
+        <v>8780</v>
+      </c>
+      <c r="O9" s="14">
+        <v>8870</v>
+      </c>
     </row>
     <row r="10" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="4">
+        <v>1527</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1372</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1462.07142857143</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="4">
+        <v>11538</v>
+      </c>
+      <c r="N10" s="4">
+        <v>11516</v>
+      </c>
+      <c r="O10" s="14">
+        <v>11529.1428571429</v>
+      </c>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="F11" s="4" t="s">
+      <c r="B11" s="10">
+        <v>1298</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1163</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1230</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="4">
+        <v>1289</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1215</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1258.625</v>
+      </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="4">
+        <v>9932</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9890</v>
+      </c>
+      <c r="O11" s="14">
+        <v>9911</v>
+      </c>
     </row>
     <row r="12" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="4">
+        <v>1243</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1095</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1163.175</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="4">
+        <v>9320</v>
+      </c>
+      <c r="N12" s="4">
+        <v>8920</v>
+      </c>
+      <c r="O12" s="14">
+        <v>9155.1</v>
+      </c>
     </row>
     <row r="13" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="4" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="13"/>
+      <c r="G13" s="4">
+        <v>1452</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1395</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1430.5</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="4">
+        <v>11458</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11188</v>
+      </c>
+      <c r="O13" s="14">
+        <v>11323</v>
+      </c>
     </row>
     <row r="14" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="4">
+        <v>1463</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1341</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1407</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="4">
+        <v>11110</v>
+      </c>
+      <c r="N14" s="4">
+        <v>11110</v>
+      </c>
+      <c r="O14" s="14">
+        <v>11110</v>
+      </c>
     </row>
     <row r="15" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="4" t="s">
+      <c r="B15" s="10">
+        <v>816</v>
+      </c>
+      <c r="C15" s="10">
+        <v>706</v>
+      </c>
+      <c r="D15" s="12">
+        <v>759</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="4">
+        <v>1102</v>
+      </c>
+      <c r="H15" s="4">
+        <v>963</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1017.47222222222</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="4">
+        <v>8123</v>
+      </c>
+      <c r="N15" s="4">
+        <v>7896</v>
+      </c>
+      <c r="O15" s="14">
+        <v>7990.77777777778</v>
+      </c>
     </row>
     <row r="16" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="13"/>
+      <c r="G16" s="4">
+        <v>1060</v>
+      </c>
+      <c r="H16" s="4">
+        <v>950</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1017.83333333333</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="4">
+        <v>8076</v>
+      </c>
+      <c r="N16" s="4">
+        <v>7920</v>
+      </c>
+      <c r="O16" s="14">
+        <v>7989.66666666667</v>
+      </c>
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="4" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="4">
+        <v>1220</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1056</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1123.55</v>
+      </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="4" t="s">
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="4">
+        <v>8946</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8746</v>
+      </c>
+      <c r="O17" s="14">
+        <v>8818</v>
+      </c>
     </row>
     <row r="18" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="13"/>
+      <c r="G18" s="4">
+        <v>1926</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1720</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1839.33333333333</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="4" t="s">
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="4">
+        <v>14558</v>
+      </c>
+      <c r="N18" s="4">
+        <v>14274</v>
+      </c>
+      <c r="O18" s="14">
+        <v>14404.1111111111</v>
+      </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="4" t="s">
+      <c r="B19" s="10">
+        <v>8037</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7867</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7956</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="13"/>
+      <c r="G19" s="4">
+        <v>1446</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1249</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1351.125</v>
+      </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="4">
+        <v>10434</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10384</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10409</v>
+      </c>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="6:15">
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="4">
+        <v>36</v>
+      </c>
+      <c r="H20" s="4">
+        <v>22</v>
+      </c>
+      <c r="I20" s="14">
+        <v>26.75</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="13"/>
+      <c r="M20" s="4">
+        <v>87</v>
+      </c>
+      <c r="N20" s="4">
+        <v>70</v>
+      </c>
+      <c r="O20" s="14">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="11:11">
-      <c r="K21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" ht="21.6" customHeight="1" spans="11:11">
-      <c r="K22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" ht="21.6" customHeight="1" spans="11:11">
-      <c r="K23" s="12"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" ht="21.6" customHeight="1" spans="11:11">
-      <c r="K24" s="12"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" ht="21.6" customHeight="1"/>
     <row r="26" ht="21.6" customHeight="1"/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="7.1" sheetId="1" r:id="rId1"/>
+    <sheet name="7.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>微乐app大厅  2020/7/1 21:30</t>
   </si>
@@ -219,16 +218,64 @@
   <si>
     <t>小游戏大厅_高防 (10)</t>
   </si>
+  <si>
+    <t>微乐app大厅  2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_陕西 (16)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_陕西 (4)</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_辽宁 (24)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_辽宁 (6)</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅   2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_吉林 (36)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_吉林 (9)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_黑龙江 (28)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_黑龙江 (7)</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/2 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (40)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -263,17 +310,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +371,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -314,66 +418,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,19 +468,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,151 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,45 +661,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,11 +704,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +729,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,145 +770,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2009,31 +2056,510 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="0.125" customWidth="1"/>
+    <col min="11" max="11" width="13.525" customWidth="1"/>
+    <col min="12" max="12" width="34.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E24"/>
+    <mergeCell ref="K1:K24"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:I20 B4:D4 B11:D11 B15:D15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O20 B19:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>微乐app大厅  2020/7/1 21:30</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>小游戏大厅_贵州 (10)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2062,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2159,71 +2162,125 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4">
+        <v>1752</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1584</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1668</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="4">
+        <v>1685</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1608.11111111111</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="4">
+        <v>12788</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12349</v>
+      </c>
+      <c r="O4" s="14">
+        <v>12519.4444444444</v>
+      </c>
     </row>
     <row r="5" ht="21.6" customHeight="1" spans="6:15">
       <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="4">
+        <v>1403</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1306</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1354.6875</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="13"/>
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="4">
+        <v>10826</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10596</v>
+      </c>
+      <c r="O5" s="14">
+        <v>10683.75</v>
+      </c>
     </row>
     <row r="6" ht="21.6" customHeight="1" spans="6:15">
       <c r="F6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="4">
+        <v>1255</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1101</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1192.75</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="13"/>
       <c r="L6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="4">
+        <v>9486</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9282</v>
+      </c>
+      <c r="O6" s="14">
+        <v>9356.5</v>
+      </c>
     </row>
     <row r="7" ht="21.6" customHeight="1" spans="6:15">
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="4">
+        <v>1134</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1008</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1056</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="13"/>
       <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="4">
+        <v>8340</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8244</v>
+      </c>
+      <c r="O7" s="14">
+        <v>8292</v>
+      </c>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="1:15">
       <c r="A8" s="7" t="s">
@@ -2235,17 +2292,29 @@
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="4">
+        <v>1368</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1203</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1285.2</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="13"/>
       <c r="L8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="4">
+        <v>10340</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9918</v>
+      </c>
+      <c r="O8" s="14">
+        <v>10144.2</v>
+      </c>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:15">
       <c r="A9" s="7"/>
@@ -2255,17 +2324,29 @@
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="4">
+        <v>1413</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1282</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1342.95833333333</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="13"/>
       <c r="L9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="14"/>
+      <c r="M9" s="4">
+        <v>10722</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10485</v>
+      </c>
+      <c r="O9" s="14">
+        <v>10598.3333333333</v>
+      </c>
     </row>
     <row r="10" ht="21.6" customHeight="1" spans="1:15">
       <c r="A10" s="8" t="s">
@@ -2283,39 +2364,69 @@
       <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="4">
+        <v>1561</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1439</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1513.07142857143</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="13"/>
       <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="14"/>
+      <c r="M10" s="4">
+        <v>11973</v>
+      </c>
+      <c r="N10" s="4">
+        <v>11945</v>
+      </c>
+      <c r="O10" s="14">
+        <v>11953.1428571429</v>
+      </c>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="10">
+        <v>1340</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1155</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1237</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="4">
+        <v>1461</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1393</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1419.25</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="13"/>
       <c r="L11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="4">
+        <v>11276</v>
+      </c>
+      <c r="N11" s="4">
+        <v>11080</v>
+      </c>
+      <c r="O11" s="14">
+        <v>11178</v>
+      </c>
     </row>
     <row r="12" ht="21.6" customHeight="1" spans="1:15">
       <c r="A12" s="7" t="s">
@@ -2327,17 +2438,29 @@
       <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="4">
+        <v>1372</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1185</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1297.38888888889</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="13"/>
       <c r="L12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="14"/>
+      <c r="M12" s="4">
+        <v>10334</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10043</v>
+      </c>
+      <c r="O12" s="14">
+        <v>10216.4444444444</v>
+      </c>
     </row>
     <row r="13" ht="21.6" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
@@ -2347,17 +2470,29 @@
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="4">
+        <v>1613</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1463</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1558.75</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="13"/>
       <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="4">
+        <v>12587</v>
+      </c>
+      <c r="N13" s="4">
+        <v>12272</v>
+      </c>
+      <c r="O13" s="14">
+        <v>12429.5</v>
+      </c>
     </row>
     <row r="14" ht="21.6" customHeight="1" spans="1:15">
       <c r="A14" s="8" t="s">
@@ -2375,39 +2510,69 @@
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="4">
+        <v>1595</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1487</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1525.75</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="13"/>
       <c r="L14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="4">
+        <v>12038</v>
+      </c>
+      <c r="N14" s="4">
+        <v>12038</v>
+      </c>
+      <c r="O14" s="14">
+        <v>12038</v>
+      </c>
     </row>
     <row r="15" ht="21.6" customHeight="1" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10">
+        <v>785</v>
+      </c>
+      <c r="C15" s="10">
+        <v>711</v>
+      </c>
+      <c r="D15" s="12">
+        <v>745</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="4">
+        <v>1433</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1249</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1319.35714285714</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="13"/>
       <c r="L15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="4">
+        <v>10509</v>
+      </c>
+      <c r="N15" s="4">
+        <v>10272</v>
+      </c>
+      <c r="O15" s="14">
+        <v>10385</v>
+      </c>
     </row>
     <row r="16" ht="21.6" customHeight="1" spans="1:15">
       <c r="A16" s="7" t="s">
@@ -2419,17 +2584,29 @@
       <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="4">
+        <v>1084</v>
+      </c>
+      <c r="H16" s="4">
+        <v>993</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1046.66666666667</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="13"/>
       <c r="L16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="4">
+        <v>8288</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8061</v>
+      </c>
+      <c r="O16" s="14">
+        <v>8186.33333333333</v>
+      </c>
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:15">
       <c r="A17" s="7"/>
@@ -2439,17 +2616,29 @@
       <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
+      <c r="G17" s="4">
+        <v>1404</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1296</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1333.6</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="13"/>
       <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="4">
+        <v>10748</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10291</v>
+      </c>
+      <c r="O17" s="14">
+        <v>10522.6</v>
+      </c>
     </row>
     <row r="18" ht="21.6" customHeight="1" spans="1:15">
       <c r="A18" s="8" t="s">
@@ -2467,55 +2656,97 @@
       <c r="F18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
+      <c r="G18" s="4">
+        <v>1653</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1466</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1566.725</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="13"/>
       <c r="L18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="4">
+        <v>12600</v>
+      </c>
+      <c r="N18" s="4">
+        <v>12046</v>
+      </c>
+      <c r="O18" s="14">
+        <v>12259.7</v>
+      </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10">
+        <v>7878</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7725</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7815</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="14"/>
+      <c r="G19" s="4">
+        <v>1453</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1285</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1378.125</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="13"/>
       <c r="L19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="4">
+        <v>10604</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10558</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10581</v>
+      </c>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="6:15">
       <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="4">
+        <v>32</v>
+      </c>
+      <c r="H20" s="4">
+        <v>22</v>
+      </c>
+      <c r="I20" s="14">
+        <v>26.475</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="13"/>
       <c r="L20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="4">
+        <v>85</v>
+      </c>
+      <c r="N20" s="4">
+        <v>73</v>
+      </c>
+      <c r="O20" s="14">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="11:11">
       <c r="K21" s="13"/>
@@ -2533,7 +2764,11 @@
     <row r="26" ht="21.6" customHeight="1"/>
     <row r="27" ht="21.6" customHeight="1"/>
     <row r="28" ht="21.6" customHeight="1"/>
-    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1" spans="8:8">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="30" ht="21.6" customHeight="1"/>
     <row r="31" ht="21.6" customHeight="1"/>
     <row r="32" ht="21.6" customHeight="1"/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
     <sheet name="7.2" sheetId="2" r:id="rId2"/>
+    <sheet name="7.14" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
   <si>
     <t>微乐app大厅  2020/7/1 21:30</t>
   </si>
@@ -268,6 +270,48 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>微乐app大厅  2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (40)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (10)</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江西_福建 (32)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江西_福建 (8)</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/14 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (48)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (12)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_高防 (48)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_高防 (12)</t>
   </si>
 </sst>
 </file>
@@ -471,12 +515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,18 +527,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,37 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,12 +587,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -609,19 +599,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +647,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,10 +817,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,130 +832,130 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2061,7 +2105,7 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -2799,4 +2843,765 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="0.125" customWidth="1"/>
+    <col min="11" max="11" width="13.525" customWidth="1"/>
+    <col min="12" max="12" width="34.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1753</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1603</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1690</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1690</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1499</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1611.85</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="4">
+        <v>12534</v>
+      </c>
+      <c r="N4" s="4">
+        <v>12452</v>
+      </c>
+      <c r="O4" s="14">
+        <v>12504.4</v>
+      </c>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1540</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1414</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1473.4375</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4">
+        <v>11956</v>
+      </c>
+      <c r="N5" s="4">
+        <v>11461</v>
+      </c>
+      <c r="O5" s="14">
+        <v>11684.75</v>
+      </c>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1544</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1431</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1480.25</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4">
+        <v>11826</v>
+      </c>
+      <c r="N6" s="4">
+        <v>11582</v>
+      </c>
+      <c r="O6" s="14">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1069</v>
+      </c>
+      <c r="H7" s="4">
+        <v>940</v>
+      </c>
+      <c r="I7" s="14">
+        <v>998.375</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7808</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7782</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1289</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1199</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1239.7</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9892</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9616</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9760.8</v>
+      </c>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1398</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1281</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1328.91666666667</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10602</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10306</v>
+      </c>
+      <c r="O9" s="14">
+        <v>10458.6666666667</v>
+      </c>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1331</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1163</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1259.40625</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="4">
+        <v>9950</v>
+      </c>
+      <c r="N10" s="4">
+        <v>9902</v>
+      </c>
+      <c r="O10" s="14">
+        <v>9925.75</v>
+      </c>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1272</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1124</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1205</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1399</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1341</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1369.5</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10944</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10778</v>
+      </c>
+      <c r="O11" s="14">
+        <v>10861</v>
+      </c>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1399</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1211</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1311.33333333333</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4">
+        <v>10514</v>
+      </c>
+      <c r="N12" s="4">
+        <v>10080</v>
+      </c>
+      <c r="O12" s="14">
+        <v>10315.5555555556</v>
+      </c>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1473</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1342</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1401.75</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
+        <v>11114</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11024</v>
+      </c>
+      <c r="O13" s="14">
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1492</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1426</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1452.25</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4">
+        <v>11400</v>
+      </c>
+      <c r="N14" s="4">
+        <v>11400</v>
+      </c>
+      <c r="O14" s="14">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10">
+        <v>782</v>
+      </c>
+      <c r="C15" s="10">
+        <v>716</v>
+      </c>
+      <c r="D15" s="12">
+        <v>750</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1328</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1226</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1272.28571428571</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4">
+        <v>10147</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9928</v>
+      </c>
+      <c r="O15" s="14">
+        <v>10067.5714285714</v>
+      </c>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1211</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1079</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1163.58333333333</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9338</v>
+      </c>
+      <c r="N16" s="4">
+        <v>9282</v>
+      </c>
+      <c r="O16" s="14">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1169</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1067</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1120.8</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9084</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8592</v>
+      </c>
+      <c r="O17" s="14">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1439</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1211</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1298.14583333333</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4">
+        <v>10380</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9896</v>
+      </c>
+      <c r="O18" s="14">
+        <v>10107.6666666667</v>
+      </c>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>7887</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7829</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7862</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1391</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1320</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1342.25</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4">
+        <v>10446</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10277</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10361.5</v>
+      </c>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>7</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4">
+        <v>74</v>
+      </c>
+      <c r="N20" s="4">
+        <v>56</v>
+      </c>
+      <c r="O20" s="14">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1" spans="8:8">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E24"/>
+    <mergeCell ref="K1:K24"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:I20 B4:D4 B11:D11 B15:D15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O20 B19:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
     <sheet name="7.2" sheetId="2" r:id="rId2"/>
     <sheet name="7.14" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="7.24" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="89">
   <si>
     <t>微乐app大厅  2020/7/1 21:30</t>
   </si>
@@ -313,16 +314,46 @@
   <si>
     <t>小游戏大厅_高防 (12)</t>
   </si>
+  <si>
+    <t>微乐app大厅  2020/7/24 21:40</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/24 21:40</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/24 21:40</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (44)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (11)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_四川_甘肃_宁夏_云南 (20)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_四川_甘肃_宁夏_云南 (5)</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/24 21:40</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/7/24 21:40</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/24 21:40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -357,29 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -393,14 +401,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,9 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,9 +433,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +455,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -458,23 +487,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,8 +510,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,156 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -677,13 +558,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +743,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -730,23 +809,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,39 +840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,7 +851,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,13 +863,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,115 +878,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2850,7 +2881,7 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -3604,4 +3635,749 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="0.125" customWidth="1"/>
+    <col min="11" max="11" width="13.525" customWidth="1"/>
+    <col min="12" max="12" width="34.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1601</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1405</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1484</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1498</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1339</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1427</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="4">
+        <v>11167</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11130</v>
+      </c>
+      <c r="O4" s="14">
+        <v>11151.8181818182</v>
+      </c>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1349</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1174</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1274.05</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10225</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9886</v>
+      </c>
+      <c r="O5" s="14">
+        <v>10051.2</v>
+      </c>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1578</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1484</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1528.9375</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4">
+        <v>12117</v>
+      </c>
+      <c r="N6" s="4">
+        <v>11955</v>
+      </c>
+      <c r="O6" s="14">
+        <v>12045</v>
+      </c>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>900</v>
+      </c>
+      <c r="I7" s="14">
+        <v>938.75</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7505</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7179</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7342</v>
+      </c>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1243</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1074</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1173.6</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9379</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9103</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9220.2</v>
+      </c>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1352</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1189</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1250.70833333333</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9928</v>
+      </c>
+      <c r="N9" s="4">
+        <v>9744</v>
+      </c>
+      <c r="O9" s="14">
+        <v>9823.66666666667</v>
+      </c>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1308</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1113</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1215.125</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="4">
+        <v>9558</v>
+      </c>
+      <c r="N10" s="4">
+        <v>9533</v>
+      </c>
+      <c r="O10" s="14">
+        <v>9542.625</v>
+      </c>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1212</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1078</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1155</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1297</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1164</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1248</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4">
+        <v>9820</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9812</v>
+      </c>
+      <c r="O11" s="14">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1267</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1102</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1187.97222222222</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9450</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9186</v>
+      </c>
+      <c r="O12" s="14">
+        <v>9334.22222222222</v>
+      </c>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1363</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1193</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1280.375</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
+        <v>10152</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10047</v>
+      </c>
+      <c r="O13" s="14">
+        <v>10099.5</v>
+      </c>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1325</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1251</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1282</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4">
+        <v>10069</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10069</v>
+      </c>
+      <c r="O14" s="14">
+        <v>10069</v>
+      </c>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10">
+        <v>817</v>
+      </c>
+      <c r="C15" s="10">
+        <v>707</v>
+      </c>
+      <c r="D15" s="12">
+        <v>767</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1169</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1049</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1104</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4">
+        <v>8745</v>
+      </c>
+      <c r="N15" s="4">
+        <v>8459</v>
+      </c>
+      <c r="O15" s="14">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1091</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1053</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1072.66666666667</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4">
+        <v>8511</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8260</v>
+      </c>
+      <c r="O16" s="14">
+        <v>8404.66666666667</v>
+      </c>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1105</v>
+      </c>
+      <c r="H17" s="4">
+        <v>976</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1041.5</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8385</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8021</v>
+      </c>
+      <c r="O17" s="14">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1397</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1178</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1278.64583333333</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4">
+        <v>10186</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9790</v>
+      </c>
+      <c r="O18" s="14">
+        <v>9974.33333333333</v>
+      </c>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8186</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7967</v>
+      </c>
+      <c r="D19" s="12">
+        <v>8084</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1250</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1169</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1211.5</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4">
+        <v>9359</v>
+      </c>
+      <c r="N19" s="4">
+        <v>9286</v>
+      </c>
+      <c r="O19" s="14">
+        <v>9322.5</v>
+      </c>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="4">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>11.0625</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4">
+        <v>68</v>
+      </c>
+      <c r="N20" s="4">
+        <v>44</v>
+      </c>
+      <c r="O20" s="14">
+        <v>55.6666666666667</v>
+      </c>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1" spans="8:8">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E24"/>
+    <mergeCell ref="K1:K24"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:I20 B4:D4 B11:D11 B15:D15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O20 B19:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="7.14" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="7.24" sheetId="5" r:id="rId5"/>
+    <sheet name="7.25" sheetId="6" r:id="rId6"/>
+    <sheet name="7.27" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="101">
   <si>
     <t>微乐app大厅  2020/7/1 21:30</t>
   </si>
@@ -344,16 +346,52 @@
   <si>
     <t>吉祥小程序代理  2020/7/24 21:40</t>
   </si>
+  <si>
+    <t>微乐app大厅  2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅  2020/7/27 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/27 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/7/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/27 21:30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -388,6 +426,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -401,6 +462,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,8 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +500,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,62 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -512,14 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,7 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +596,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,31 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,54 +753,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,54 +781,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -809,8 +799,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +845,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,13 +901,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,115 +916,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3642,7 +3680,7 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -4328,6 +4366,1268 @@
       <c r="O20" s="14">
         <v>55.6666666666667</v>
       </c>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1" spans="8:8">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E24"/>
+    <mergeCell ref="K1:K24"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:I20 B4:D4 B11:D11 B15:D15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O20 B19:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="0.125" customWidth="1"/>
+    <col min="11" max="11" width="13.525" customWidth="1"/>
+    <col min="12" max="12" width="34.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1629</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1492</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1554</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1579</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1414</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1502.79545454545</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="4">
+        <v>11761</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11702</v>
+      </c>
+      <c r="O4" s="14">
+        <v>11730.2727272727</v>
+      </c>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1187</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1080</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1134.1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="4">
+        <v>9029</v>
+      </c>
+      <c r="N5" s="4">
+        <v>8792</v>
+      </c>
+      <c r="O5" s="14">
+        <v>8914.6</v>
+      </c>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1222</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1115</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1168</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9187</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9047</v>
+      </c>
+      <c r="O6" s="14">
+        <v>9141.5</v>
+      </c>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1056</v>
+      </c>
+      <c r="H7" s="4">
+        <v>924</v>
+      </c>
+      <c r="I7" s="14">
+        <v>991.875</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7789</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7695</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7742</v>
+      </c>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1295</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1132</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1208.1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9601</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9362</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9490.2</v>
+      </c>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1365</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1237</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1304.41666666667</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10396</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10211</v>
+      </c>
+      <c r="O9" s="14">
+        <v>10284.5</v>
+      </c>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1314</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1166</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1215.15625</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="4">
+        <v>9558</v>
+      </c>
+      <c r="N10" s="4">
+        <v>9531</v>
+      </c>
+      <c r="O10" s="14">
+        <v>9543.875</v>
+      </c>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1214</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1089</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1166</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1406</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1295</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1344.25</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10738</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10396</v>
+      </c>
+      <c r="O11" s="14">
+        <v>10567</v>
+      </c>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1291</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1149</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1234.91666666667</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9885</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9599</v>
+      </c>
+      <c r="O12" s="14">
+        <v>9730.66666666667</v>
+      </c>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1395</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1263</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1337.625</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
+        <v>10567</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10512</v>
+      </c>
+      <c r="O13" s="14">
+        <v>10539.5</v>
+      </c>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1387</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1255</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1311.5</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4">
+        <v>10295</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10295</v>
+      </c>
+      <c r="O14" s="14">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10">
+        <v>820</v>
+      </c>
+      <c r="C15" s="10">
+        <v>729</v>
+      </c>
+      <c r="D15" s="12">
+        <v>778</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1225</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1093</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1161.46428571429</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9227</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9078</v>
+      </c>
+      <c r="O15" s="14">
+        <v>9145.28571428571</v>
+      </c>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1217</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1122</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1151.66666666667</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9121</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8945</v>
+      </c>
+      <c r="O16" s="14">
+        <v>9043.33333333333</v>
+      </c>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1210</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1073</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1148.4</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9079</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8866</v>
+      </c>
+      <c r="O17" s="14">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1520</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1329</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1406.125</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4">
+        <v>11193</v>
+      </c>
+      <c r="N18" s="4">
+        <v>10802</v>
+      </c>
+      <c r="O18" s="14">
+        <v>11011.25</v>
+      </c>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8314</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8060</v>
+      </c>
+      <c r="D19" s="12">
+        <v>8173</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1285</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1193</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1242</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4">
+        <v>9634</v>
+      </c>
+      <c r="N19" s="4">
+        <v>9625</v>
+      </c>
+      <c r="O19" s="14">
+        <v>9629.5</v>
+      </c>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="4">
+        <v>28</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>10.625</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4">
+        <v>72</v>
+      </c>
+      <c r="N20" s="4">
+        <v>50</v>
+      </c>
+      <c r="O20" s="14">
+        <v>61.8333333333333</v>
+      </c>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" ht="21.6" customHeight="1" spans="11:11">
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1" spans="8:8">
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E24"/>
+    <mergeCell ref="K1:K24"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A16:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G4:I20 B4:D4 B11:D11 B15:D15">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:O20 B19:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="0.125" customWidth="1"/>
+    <col min="11" max="11" width="13.525" customWidth="1"/>
+    <col min="12" max="12" width="34.625" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="F19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="6:15">
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="11:11">
       <c r="K21" s="13"/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -365,22 +365,22 @@
     <t>吉祥小程序代理  2020/7/26 21:30</t>
   </si>
   <si>
-    <t>微乐app大厅  2020/7/27 21:30</t>
-  </si>
-  <si>
-    <t>微乐小程序大厅  2020/7/27 21:30</t>
-  </si>
-  <si>
-    <t>微乐小程序代理  2020/7/27 21:30</t>
-  </si>
-  <si>
-    <t>吉祥app大厅  2020/7/27 21:30</t>
-  </si>
-  <si>
-    <t>吉祥小程序大厅 2020/7/27 21:30</t>
-  </si>
-  <si>
-    <t>吉祥小程序代理  2020/7/27 21:30</t>
+    <t>微乐app大厅  2020/7/27 21:31</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅  2020/7/27 21:31</t>
+  </si>
+  <si>
+    <t>微乐小程序代理  2020/7/27 21:31</t>
+  </si>
+  <si>
+    <t>吉祥app大厅  2020/7/27 21:31</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/7/27 21:31</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理  2020/7/27 21:31</t>
   </si>
 </sst>
 </file>
@@ -388,11 +388,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -420,15 +420,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,9 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,14 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -480,8 +470,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,9 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +524,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -541,15 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +620,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,37 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,13 +662,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,49 +722,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,6 +781,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -796,26 +814,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,6 +846,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -845,39 +878,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,145 +886,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5171,7 +5171,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5271,71 +5271,125 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4">
+        <v>1678</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1476</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1555</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="4">
+        <v>1636</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1450</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1523.70454545455</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="13"/>
       <c r="L4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="4">
+        <v>11937</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11878</v>
+      </c>
+      <c r="O4" s="14">
+        <v>11903.6363636364</v>
+      </c>
     </row>
     <row r="5" ht="21.6" customHeight="1" spans="6:15">
       <c r="F5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="4">
+        <v>1267</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1110</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1193.8</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="13"/>
       <c r="L5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="4">
+        <v>9577</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9187</v>
+      </c>
+      <c r="O5" s="14">
+        <v>9407</v>
+      </c>
     </row>
     <row r="6" ht="21.6" customHeight="1" spans="6:15">
       <c r="F6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="4">
+        <v>1363</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1167</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1255.25</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="13"/>
       <c r="L6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="4">
+        <v>9895</v>
+      </c>
+      <c r="N6" s="4">
+        <v>9747</v>
+      </c>
+      <c r="O6" s="14">
+        <v>9841.5</v>
+      </c>
     </row>
     <row r="7" ht="21.6" customHeight="1" spans="6:15">
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="14"/>
+      <c r="G7" s="4">
+        <v>1039</v>
+      </c>
+      <c r="H7" s="4">
+        <v>942</v>
+      </c>
+      <c r="I7" s="14">
+        <v>994.5</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="13"/>
       <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="4">
+        <v>7801</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7759</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7780</v>
+      </c>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="1:15">
       <c r="A8" s="7" t="s">
@@ -5347,17 +5401,29 @@
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="4">
+        <v>1300</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1126</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1218</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="13"/>
       <c r="L8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="4">
+        <v>9618</v>
+      </c>
+      <c r="N8" s="4">
+        <v>9543</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9584.2</v>
+      </c>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:15">
       <c r="A9" s="7"/>
@@ -5367,17 +5433,29 @@
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="4">
+        <v>1467</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1331</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1397.45833333333</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="13"/>
       <c r="L9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="14"/>
+      <c r="M9" s="4">
+        <v>11179</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10766</v>
+      </c>
+      <c r="O9" s="14">
+        <v>11008.1666666667</v>
+      </c>
     </row>
     <row r="10" ht="21.6" customHeight="1" spans="1:15">
       <c r="A10" s="8" t="s">
@@ -5395,39 +5473,69 @@
       <c r="F10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="4">
+        <v>1385</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1238</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1314.46875</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="13"/>
       <c r="L10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="14"/>
+      <c r="M10" s="4">
+        <v>10359</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10318</v>
+      </c>
+      <c r="O10" s="14">
+        <v>10337.125</v>
+      </c>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="10">
+        <v>1264</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1062</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1191</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="4">
+        <v>1395</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1238</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1322.875</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="13"/>
       <c r="L11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="4">
+        <v>10418</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10327</v>
+      </c>
+      <c r="O11" s="14">
+        <v>10372.5</v>
+      </c>
     </row>
     <row r="12" ht="21.6" customHeight="1" spans="1:15">
       <c r="A12" s="7" t="s">
@@ -5439,17 +5547,29 @@
       <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="4">
+        <v>1345</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1208</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1268.52777777778</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="13"/>
       <c r="L12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="14"/>
+      <c r="M12" s="4">
+        <v>10257</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9798</v>
+      </c>
+      <c r="O12" s="14">
+        <v>9968.22222222222</v>
+      </c>
     </row>
     <row r="13" ht="21.6" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
@@ -5459,17 +5579,29 @@
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="4">
+        <v>1441</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1361</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1403</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="13"/>
       <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="4">
+        <v>11170</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11033</v>
+      </c>
+      <c r="O13" s="14">
+        <v>11101.5</v>
+      </c>
     </row>
     <row r="14" ht="21.6" customHeight="1" spans="1:15">
       <c r="A14" s="8" t="s">
@@ -5487,39 +5619,69 @@
       <c r="F14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
+      <c r="G14" s="4">
+        <v>1340</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1231</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1291.25</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="13"/>
       <c r="L14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="4">
+        <v>10167</v>
+      </c>
+      <c r="N14" s="4">
+        <v>10167</v>
+      </c>
+      <c r="O14" s="14">
+        <v>10167</v>
+      </c>
     </row>
     <row r="15" ht="21.6" customHeight="1" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10">
+        <v>847</v>
+      </c>
+      <c r="C15" s="10">
+        <v>759</v>
+      </c>
+      <c r="D15" s="12">
+        <v>802</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="4">
+        <v>1262</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1143</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1202.85714285714</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="13"/>
       <c r="L15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="4">
+        <v>9624</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9341</v>
+      </c>
+      <c r="O15" s="14">
+        <v>9452.71428571429</v>
+      </c>
     </row>
     <row r="16" ht="21.6" customHeight="1" spans="1:15">
       <c r="A16" s="7" t="s">
@@ -5531,17 +5693,29 @@
       <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="14"/>
+      <c r="G16" s="4">
+        <v>1183</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1059</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1112</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="13"/>
       <c r="L16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="4">
+        <v>8984</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8561</v>
+      </c>
+      <c r="O16" s="14">
+        <v>8736</v>
+      </c>
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:15">
       <c r="A17" s="7"/>
@@ -5551,17 +5725,29 @@
       <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
+      <c r="G17" s="4">
+        <v>1170</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1069</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1122.4</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="13"/>
       <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="4">
+        <v>8915</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8710</v>
+      </c>
+      <c r="O17" s="14">
+        <v>8822</v>
+      </c>
     </row>
     <row r="18" ht="21.6" customHeight="1" spans="1:15">
       <c r="A18" s="8" t="s">
@@ -5579,55 +5765,97 @@
       <c r="F18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
+      <c r="G18" s="4">
+        <v>1388</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1232</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1292.08333333333</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="13"/>
       <c r="L18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="4">
+        <v>10396</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9911</v>
+      </c>
+      <c r="O18" s="14">
+        <v>10089.4166666667</v>
+      </c>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:15">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10">
+        <v>8540</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8303</v>
+      </c>
+      <c r="D19" s="12">
+        <v>8428</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="14"/>
+      <c r="G19" s="4">
+        <v>1383</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1269</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1327.5</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="13"/>
       <c r="L19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="4">
+        <v>10436</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10039</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10237.5</v>
+      </c>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="6:15">
       <c r="F20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="4">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14">
+        <v>10.3333333333333</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="13"/>
       <c r="L20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="4">
+        <v>72</v>
+      </c>
+      <c r="N20" s="4">
+        <v>53</v>
+      </c>
+      <c r="O20" s="14">
+        <v>60.1666666666667</v>
+      </c>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="11:11">
       <c r="K21" s="13"/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="模板" sheetId="1" r:id="rId1"/>
+    <sheet name="20200810" sheetId="2" r:id="rId2"/>
+    <sheet name="20200811" sheetId="3" r:id="rId3"/>
+    <sheet name="20200812" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20200810'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20200811'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20200812'!$F$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
   <si>
     <t>微乐app大厅 2020/7/31 21:30</t>
   </si>
@@ -45,10 +49,10 @@
     <t>APP大厅_通用（52）</t>
   </si>
   <si>
-    <t>小游戏大厅_通用 (11)</t>
-  </si>
-  <si>
-    <t>小游戏大厅_通用 (44)</t>
+    <t>小游戏大厅_通用 (12)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (48)</t>
   </si>
   <si>
     <t>小游戏大厅_四川_甘肃_宁夏_云南 (5)</t>
@@ -163,6 +167,60 @@
   </si>
   <si>
     <t>小游戏大厅_高防 (48)</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/10 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/11 21:50</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/12 21:30</t>
   </si>
 </sst>
 </file>
@@ -170,13 +228,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +262,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +289,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -233,9 +345,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,45 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,29 +376,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,20 +390,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,7 +424,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,61 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,109 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,11 +780,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,15 +836,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -785,32 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,139 +897,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,9 +1046,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,31 +1058,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,20 +1106,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,31 +1133,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1478,755 +1520,472 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="4.55833333333333" customWidth="1"/>
+    <col min="2" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.55833333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.625" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="7" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="36.5" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="12" max="14" width="9.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="0.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="38"/>
     </row>
     <row r="4" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
-        <v>1572</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1400</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1488</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15">
-        <v>11724</v>
-      </c>
-      <c r="H4" s="15">
-        <v>11678</v>
-      </c>
-      <c r="I4" s="39">
-        <v>11704</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="14" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="39"/>
+      <c r="K4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="15">
-        <v>1574</v>
-      </c>
-      <c r="M4" s="15">
-        <v>1421</v>
-      </c>
-      <c r="N4" s="40">
-        <v>1500</v>
-      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="38"/>
     </row>
     <row r="5" ht="21.6" customHeight="1" spans="4:15">
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15">
-        <v>9682</v>
-      </c>
-      <c r="H5" s="15">
-        <v>9411</v>
-      </c>
-      <c r="I5" s="39">
-        <v>9559</v>
-      </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="39"/>
+      <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="15">
-        <v>1290</v>
-      </c>
-      <c r="M5" s="15">
-        <v>1186</v>
-      </c>
-      <c r="N5" s="40">
-        <v>1225</v>
-      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="38"/>
     </row>
     <row r="6" ht="21.6" customHeight="1" spans="4:15">
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="15">
-        <v>9149</v>
-      </c>
-      <c r="H6" s="15">
-        <v>9041</v>
-      </c>
-      <c r="I6" s="39">
-        <v>9078</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="39"/>
+      <c r="K6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="15">
-        <v>1224</v>
-      </c>
-      <c r="M6" s="15">
-        <v>1120</v>
-      </c>
-      <c r="N6" s="40">
-        <v>1168</v>
-      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="38"/>
     </row>
     <row r="7" ht="21.6" customHeight="1" spans="4:15">
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15">
-        <v>6711</v>
-      </c>
-      <c r="H7" s="15">
-        <v>6634</v>
-      </c>
-      <c r="I7" s="39">
-        <v>6673</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="14" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="39"/>
+      <c r="K7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="15">
-        <v>900</v>
-      </c>
-      <c r="M7" s="15">
-        <v>809</v>
-      </c>
-      <c r="N7" s="40">
-        <v>864</v>
-      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="38"/>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="4:15">
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14" t="s">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="15">
-        <v>9837</v>
-      </c>
-      <c r="H8" s="15">
-        <v>9544</v>
-      </c>
-      <c r="I8" s="39">
-        <v>9682</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="14" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="39"/>
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="15">
-        <v>1309</v>
-      </c>
-      <c r="M8" s="15">
-        <v>1150</v>
-      </c>
-      <c r="N8" s="40">
-        <v>1227</v>
-      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="40"/>
       <c r="O8" s="38"/>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15">
-        <v>10913</v>
-      </c>
-      <c r="H9" s="15">
-        <v>10723</v>
-      </c>
-      <c r="I9" s="39">
-        <v>10808</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="14" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="39"/>
+      <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="15">
-        <v>1441</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1327</v>
-      </c>
-      <c r="N9" s="40">
-        <v>1371</v>
-      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="38"/>
     </row>
     <row r="10" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15">
-        <v>8970</v>
-      </c>
-      <c r="H10" s="15">
-        <v>8904</v>
-      </c>
-      <c r="I10" s="39">
-        <v>8932</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="14" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="39"/>
+      <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="15">
-        <v>1214</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1079</v>
-      </c>
-      <c r="N10" s="40">
-        <v>1145</v>
-      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="38"/>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15">
-        <v>9699</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9462</v>
-      </c>
-      <c r="I11" s="39">
-        <v>9581</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="14" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="39"/>
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="15">
-        <v>1303</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1188</v>
-      </c>
-      <c r="N11" s="40">
-        <v>1234</v>
-      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="38"/>
     </row>
     <row r="12" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28">
-        <v>1259</v>
-      </c>
-      <c r="C12" s="28">
-        <v>1141</v>
-      </c>
-      <c r="D12" s="29">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="14" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="15">
-        <v>10212</v>
-      </c>
-      <c r="H12" s="15">
-        <v>9812</v>
-      </c>
-      <c r="I12" s="39">
-        <v>10054</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="14" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="39"/>
+      <c r="K12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="15">
-        <v>1344</v>
-      </c>
-      <c r="M12" s="15">
-        <v>1200</v>
-      </c>
-      <c r="N12" s="40">
-        <v>1269</v>
-      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="38"/>
     </row>
     <row r="13" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="15">
-        <v>9360</v>
-      </c>
-      <c r="H13" s="15">
-        <v>9274</v>
-      </c>
-      <c r="I13" s="39">
-        <v>9317</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="14" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="39"/>
+      <c r="K13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="15">
-        <v>1265</v>
-      </c>
-      <c r="M13" s="15">
-        <v>1113</v>
-      </c>
-      <c r="N13" s="40">
-        <v>1195</v>
-      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="38"/>
     </row>
     <row r="14" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="15">
-        <v>9085</v>
-      </c>
-      <c r="H14" s="15">
-        <v>9085</v>
-      </c>
-      <c r="I14" s="39">
-        <v>9085</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="14" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="39"/>
+      <c r="K14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="15">
-        <v>1196</v>
-      </c>
-      <c r="M14" s="15">
-        <v>1114</v>
-      </c>
-      <c r="N14" s="40">
-        <v>1162</v>
-      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="38"/>
     </row>
     <row r="15" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="15">
-        <v>9703</v>
-      </c>
-      <c r="H15" s="15">
-        <v>9215</v>
-      </c>
-      <c r="I15" s="39">
-        <v>9545</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="14" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="39"/>
+      <c r="K15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="15">
-        <v>1269</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1142</v>
-      </c>
-      <c r="N15" s="40">
-        <v>1205</v>
-      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="38"/>
     </row>
     <row r="16" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="28">
-        <v>861</v>
-      </c>
-      <c r="C16" s="28">
-        <v>760</v>
-      </c>
-      <c r="D16" s="34">
-        <v>811</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="14" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="15">
-        <v>7777</v>
-      </c>
-      <c r="H16" s="15">
-        <v>7677</v>
-      </c>
-      <c r="I16" s="39">
-        <v>7713</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="14" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="39"/>
+      <c r="K16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="15">
-        <v>1048</v>
-      </c>
-      <c r="M16" s="15">
-        <v>937</v>
-      </c>
-      <c r="N16" s="40">
-        <v>1001</v>
-      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="38"/>
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="14" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="15">
-        <v>8309</v>
-      </c>
-      <c r="H17" s="15">
-        <v>7910</v>
-      </c>
-      <c r="I17" s="39">
-        <v>8172</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="14" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="39"/>
+      <c r="K17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="15">
-        <v>1120</v>
-      </c>
-      <c r="M17" s="15">
-        <v>985</v>
-      </c>
-      <c r="N17" s="40">
-        <v>1050</v>
-      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="38"/>
     </row>
     <row r="18" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="14" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="15">
-        <v>10088</v>
-      </c>
-      <c r="H18" s="15">
-        <v>9684</v>
-      </c>
-      <c r="I18" s="39">
-        <v>9901</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="14" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="39"/>
+      <c r="K18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="15">
-        <v>1397</v>
-      </c>
-      <c r="M18" s="15">
-        <v>1175</v>
-      </c>
-      <c r="N18" s="40">
-        <v>1278</v>
-      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="38"/>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="15">
-        <v>10075</v>
-      </c>
-      <c r="H19" s="15">
-        <v>9978</v>
-      </c>
-      <c r="I19" s="39">
-        <v>10027</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="14" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="39"/>
+      <c r="K19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="15">
-        <v>1382</v>
-      </c>
-      <c r="M19" s="15">
-        <v>1241</v>
-      </c>
-      <c r="N19" s="40">
-        <v>1300</v>
-      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="38"/>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="1:15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="28">
-        <v>8644</v>
-      </c>
-      <c r="C20" s="28">
-        <v>8510</v>
-      </c>
-      <c r="D20" s="34">
-        <v>8561</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="12">
-        <v>67</v>
-      </c>
-      <c r="H20" s="12">
-        <v>46</v>
-      </c>
-      <c r="I20" s="41">
-        <v>55</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="35" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="41"/>
+      <c r="K20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="12">
-        <v>16</v>
-      </c>
-      <c r="M20" s="12">
-        <v>7</v>
-      </c>
-      <c r="N20" s="42">
-        <v>10</v>
-      </c>
-      <c r="O20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="4:17">
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" ht="21.6" customHeight="1" spans="5:17">
-      <c r="E22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" ht="21.6" customHeight="1" spans="5:10">
-      <c r="E23" s="36"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" ht="21.6" customHeight="1" spans="5:10">
-      <c r="E24" s="36"/>
-      <c r="J24" s="37"/>
-    </row>
-    <row r="25" ht="21.6" customHeight="1" spans="5:10">
-      <c r="E25" s="36"/>
-      <c r="J25" s="37"/>
-    </row>
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
     <row r="26" ht="21.6" customHeight="1"/>
     <row r="27" ht="21.6" customHeight="1"/>
     <row r="28" ht="21.6" customHeight="1"/>
@@ -2238,7 +1997,9 @@
     <row r="34" ht="21.6" customHeight="1"/>
     <row r="35" ht="21.6" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="K1:O2"/>
     <mergeCell ref="F1:I2"/>
@@ -2265,14 +2026,735 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1634</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1451</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1540</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16">
+        <v>11800</v>
+      </c>
+      <c r="H4" s="16">
+        <v>11710</v>
+      </c>
+      <c r="I4" s="39">
+        <v>11771.5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1579</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1395</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1503.16666666667</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16">
+        <v>11708</v>
+      </c>
+      <c r="H5" s="16">
+        <v>11105</v>
+      </c>
+      <c r="I5" s="39">
+        <v>11326.8</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1511</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1354</v>
+      </c>
+      <c r="N5" s="40">
+        <v>1436.95</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10324</v>
+      </c>
+      <c r="H6" s="16">
+        <v>10018</v>
+      </c>
+      <c r="I6" s="39">
+        <v>10221.5</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1358</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1259</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1301.375</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16">
+        <v>8012</v>
+      </c>
+      <c r="H7" s="16">
+        <v>7964</v>
+      </c>
+      <c r="I7" s="39">
+        <v>7988</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1085</v>
+      </c>
+      <c r="M7" s="16">
+        <v>956</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1006.125</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16">
+        <v>10153</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9852</v>
+      </c>
+      <c r="I8" s="39">
+        <v>10052.6</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1346</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1148</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1276.1</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16">
+        <v>11151</v>
+      </c>
+      <c r="H9" s="16">
+        <v>10872</v>
+      </c>
+      <c r="I9" s="39">
+        <v>10968.3333333333</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1459</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1293</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1385.41666666667</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="16">
+        <v>10517</v>
+      </c>
+      <c r="H10" s="16">
+        <v>10486</v>
+      </c>
+      <c r="I10" s="39">
+        <v>10504.75</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1420</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1254</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1332.625</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="16">
+        <v>10966</v>
+      </c>
+      <c r="H11" s="16">
+        <v>10953</v>
+      </c>
+      <c r="I11" s="39">
+        <v>10959.5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1485</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1351</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1396</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1284</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1139</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1212</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10365</v>
+      </c>
+      <c r="H12" s="16">
+        <v>9911</v>
+      </c>
+      <c r="I12" s="39">
+        <v>10157.2222222222</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1356</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1212</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1291.47222222222</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16">
+        <v>11177</v>
+      </c>
+      <c r="H13" s="16">
+        <v>11134</v>
+      </c>
+      <c r="I13" s="39">
+        <v>11155.5</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1480</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1303</v>
+      </c>
+      <c r="N13" s="40">
+        <v>1412.125</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16">
+        <v>10088</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10088</v>
+      </c>
+      <c r="I14" s="39">
+        <v>10088</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1332</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1214</v>
+      </c>
+      <c r="N14" s="40">
+        <v>1282.75</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16">
+        <v>9681</v>
+      </c>
+      <c r="H15" s="16">
+        <v>9261</v>
+      </c>
+      <c r="I15" s="39">
+        <v>9495.71428571429</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1285</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1143</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1208.75</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="29">
+        <v>925</v>
+      </c>
+      <c r="C16" s="29">
+        <v>830</v>
+      </c>
+      <c r="D16" s="35">
+        <v>882</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16">
+        <v>9216</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8963</v>
+      </c>
+      <c r="I16" s="39">
+        <v>9061.66666666667</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1184</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1077</v>
+      </c>
+      <c r="N16" s="40">
+        <v>1152.41666666667</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="16">
+        <v>9121</v>
+      </c>
+      <c r="H17" s="16">
+        <v>8894</v>
+      </c>
+      <c r="I17" s="39">
+        <v>9020.8</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1191</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1093</v>
+      </c>
+      <c r="N17" s="40">
+        <v>1142.45</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="16">
+        <v>11148</v>
+      </c>
+      <c r="H18" s="16">
+        <v>10782</v>
+      </c>
+      <c r="I18" s="39">
+        <v>11005</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1519</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1325</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1406.41666666667</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="16">
+        <v>10493</v>
+      </c>
+      <c r="H19" s="16">
+        <v>9985</v>
+      </c>
+      <c r="I19" s="39">
+        <v>10239</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1383</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1263</v>
+      </c>
+      <c r="N19" s="40">
+        <v>1325</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29">
+        <v>9308</v>
+      </c>
+      <c r="C20" s="29">
+        <v>9214</v>
+      </c>
+      <c r="D20" s="35">
+        <v>9266</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="13">
+        <v>71</v>
+      </c>
+      <c r="H20" s="13">
+        <v>50</v>
+      </c>
+      <c r="I20" s="41">
+        <v>60.75</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="13">
+        <v>37</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>11.0416666666667</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2282,14 +2764,1245 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1607</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1517</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16">
+        <v>12530</v>
+      </c>
+      <c r="H4" s="16">
+        <v>12246</v>
+      </c>
+      <c r="I4" s="39">
+        <v>12485.8333333333</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1692</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1507</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1566.20833333333</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16">
+        <v>13567</v>
+      </c>
+      <c r="H5" s="16">
+        <v>13224</v>
+      </c>
+      <c r="I5" s="39">
+        <v>13391.6</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1717</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1608</v>
+      </c>
+      <c r="N5" s="40">
+        <v>1660.25</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16">
+        <v>12132</v>
+      </c>
+      <c r="H6" s="16">
+        <v>12014</v>
+      </c>
+      <c r="I6" s="39">
+        <v>12079.5</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1572</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1453</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1507</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16">
+        <v>9164</v>
+      </c>
+      <c r="H7" s="16">
+        <v>8994</v>
+      </c>
+      <c r="I7" s="39">
+        <v>9079</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1206</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1081</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1132.75</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16">
+        <v>10295</v>
+      </c>
+      <c r="H8" s="16">
+        <v>10146</v>
+      </c>
+      <c r="I8" s="39">
+        <v>10204.6</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1329</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1215</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1269.85</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16">
+        <v>9826</v>
+      </c>
+      <c r="H9" s="16">
+        <v>9717</v>
+      </c>
+      <c r="I9" s="39">
+        <v>9746.83333333333</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1266</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1152</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1214.625</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="16">
+        <v>10884</v>
+      </c>
+      <c r="H10" s="16">
+        <v>10826</v>
+      </c>
+      <c r="I10" s="39">
+        <v>10849.875</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1420</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1293</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1350.625</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="16">
+        <v>11364</v>
+      </c>
+      <c r="H11" s="16">
+        <v>11307</v>
+      </c>
+      <c r="I11" s="39">
+        <v>11335.5</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1453</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1345</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1398.625</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1115</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1026</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1072</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <v>9436</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8959</v>
+      </c>
+      <c r="I12" s="39">
+        <v>9198.11111111111</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1258</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1016</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1140.72222222222</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16">
+        <v>12101</v>
+      </c>
+      <c r="H13" s="16">
+        <v>11956</v>
+      </c>
+      <c r="I13" s="39">
+        <v>12028.5</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1558</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1419</v>
+      </c>
+      <c r="N13" s="40">
+        <v>1496.125</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16">
+        <v>11114</v>
+      </c>
+      <c r="H14" s="16">
+        <v>11114</v>
+      </c>
+      <c r="I14" s="39">
+        <v>11114</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1453</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1327</v>
+      </c>
+      <c r="N14" s="40">
+        <v>1384.5</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16">
+        <v>8496</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8219</v>
+      </c>
+      <c r="I15" s="39">
+        <v>8348.85714285714</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1107</v>
+      </c>
+      <c r="M15" s="16">
+        <v>950</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1038.89285714286</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="29">
+        <v>858</v>
+      </c>
+      <c r="C16" s="29">
+        <v>776</v>
+      </c>
+      <c r="D16" s="35">
+        <v>830</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16">
+        <v>289</v>
+      </c>
+      <c r="H16" s="16">
+        <v>276</v>
+      </c>
+      <c r="I16" s="39">
+        <v>283</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="16">
+        <v>341</v>
+      </c>
+      <c r="M16" s="16">
+        <v>289</v>
+      </c>
+      <c r="N16" s="40">
+        <v>318.833333333333</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="16">
+        <v>10288</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10107</v>
+      </c>
+      <c r="I17" s="39">
+        <v>10210.4</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1322</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1225</v>
+      </c>
+      <c r="N17" s="40">
+        <v>1271.7</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="16">
+        <v>12547</v>
+      </c>
+      <c r="H18" s="16">
+        <v>12308</v>
+      </c>
+      <c r="I18" s="39">
+        <v>12379.9166666667</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1607</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1470</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1553.97916666667</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="16">
+        <v>11016</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10883</v>
+      </c>
+      <c r="I19" s="39">
+        <v>10949.5</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1448</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1339</v>
+      </c>
+      <c r="N19" s="40">
+        <v>1395.375</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8832</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8642</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8716</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="13">
+        <v>294</v>
+      </c>
+      <c r="H20" s="13">
+        <v>259</v>
+      </c>
+      <c r="I20" s="41">
+        <v>273.083333333333</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="13">
+        <v>170</v>
+      </c>
+      <c r="M20" s="13">
+        <v>127</v>
+      </c>
+      <c r="N20" s="42">
+        <v>146.625</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="39"/>
+      <c r="K4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="39"/>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="39"/>
+      <c r="K6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="39"/>
+      <c r="K7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="39"/>
+      <c r="K8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="39"/>
+      <c r="K9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="39"/>
+      <c r="K10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="39"/>
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="39"/>
+      <c r="K12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="39"/>
+      <c r="K13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="39"/>
+      <c r="K14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="39"/>
+      <c r="K15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="39"/>
+      <c r="K16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="39"/>
+      <c r="K17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="39"/>
+      <c r="K18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="39"/>
+      <c r="K19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="41"/>
+      <c r="K20" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -230,9 +230,9 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,24 +266,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,39 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,52 +388,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +424,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,91 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +544,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,6 +780,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,38 +828,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,25 +864,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,145 +885,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3505,7 +3505,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -3604,21 +3604,39 @@
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="13">
+        <v>1695</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1506</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1577</v>
+      </c>
       <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="16">
+        <v>12794</v>
+      </c>
+      <c r="H4" s="16">
+        <v>12414</v>
+      </c>
+      <c r="I4" s="39">
+        <v>12747.5833333333</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="40"/>
+      <c r="L4" s="16">
+        <v>1663</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1522</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1591.25</v>
+      </c>
       <c r="O4" s="38"/>
     </row>
     <row r="5" ht="21.6" customHeight="1" spans="4:15">
@@ -3626,15 +3644,27 @@
       <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="16">
+        <v>13179</v>
+      </c>
+      <c r="H5" s="16">
+        <v>12820</v>
+      </c>
+      <c r="I5" s="39">
+        <v>12975.2</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="40"/>
+      <c r="L5" s="16">
+        <v>1658</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1552</v>
+      </c>
+      <c r="N5" s="40">
+        <v>1601.05</v>
+      </c>
       <c r="O5" s="38"/>
     </row>
     <row r="6" ht="21.6" customHeight="1" spans="4:15">
@@ -3642,15 +3672,27 @@
       <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="39"/>
+      <c r="G6" s="16">
+        <v>14024</v>
+      </c>
+      <c r="H6" s="16">
+        <v>13742</v>
+      </c>
+      <c r="I6" s="39">
+        <v>13880.25</v>
+      </c>
       <c r="K6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="40"/>
+      <c r="L6" s="16">
+        <v>1781</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1660</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1717</v>
+      </c>
       <c r="O6" s="38"/>
     </row>
     <row r="7" ht="21.6" customHeight="1" spans="4:15">
@@ -3658,15 +3700,27 @@
       <c r="F7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="16">
+        <v>9329</v>
+      </c>
+      <c r="H7" s="16">
+        <v>9311</v>
+      </c>
+      <c r="I7" s="39">
+        <v>9320</v>
+      </c>
       <c r="K7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="40"/>
+      <c r="L7" s="16">
+        <v>1181</v>
+      </c>
+      <c r="M7" s="16">
+        <v>1111</v>
+      </c>
+      <c r="N7" s="40">
+        <v>1144.625</v>
+      </c>
       <c r="O7" s="38"/>
     </row>
     <row r="8" ht="21.6" customHeight="1" spans="4:15">
@@ -3674,15 +3728,27 @@
       <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="16">
+        <v>10962</v>
+      </c>
+      <c r="H8" s="16">
+        <v>10863</v>
+      </c>
+      <c r="I8" s="39">
+        <v>10923.4</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="40"/>
+      <c r="L8" s="16">
+        <v>1390</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1299</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1344.15</v>
+      </c>
       <c r="O8" s="38"/>
     </row>
     <row r="9" ht="21.6" customHeight="1" spans="1:15">
@@ -3695,15 +3761,27 @@
       <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="16">
+        <v>11686</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11314</v>
+      </c>
+      <c r="I9" s="39">
+        <v>11481.5</v>
+      </c>
       <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="40"/>
+      <c r="L9" s="16">
+        <v>1502</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1342</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1414.375</v>
+      </c>
       <c r="O9" s="38"/>
     </row>
     <row r="10" ht="21.6" customHeight="1" spans="1:15">
@@ -3714,15 +3792,27 @@
       <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="16">
+        <v>10514</v>
+      </c>
+      <c r="H10" s="16">
+        <v>10469</v>
+      </c>
+      <c r="I10" s="39">
+        <v>10489.25</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="40"/>
+      <c r="L10" s="16">
+        <v>1362</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1206</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1290.84375</v>
+      </c>
       <c r="O10" s="38"/>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:15">
@@ -3741,36 +3831,66 @@
       <c r="F11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="39"/>
+      <c r="G11" s="16">
+        <v>11136</v>
+      </c>
+      <c r="H11" s="16">
+        <v>10758</v>
+      </c>
+      <c r="I11" s="39">
+        <v>10947</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="40"/>
+      <c r="L11" s="16">
+        <v>1377</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1311</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1348.625</v>
+      </c>
       <c r="O11" s="38"/>
     </row>
     <row r="12" ht="21.6" customHeight="1" spans="1:15">
       <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="29">
+        <v>1258</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1081</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1191</v>
+      </c>
       <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="16">
+        <v>10688</v>
+      </c>
+      <c r="H12" s="16">
+        <v>10251</v>
+      </c>
+      <c r="I12" s="39">
+        <v>10462.6666666667</v>
+      </c>
       <c r="K12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="40"/>
+      <c r="L12" s="16">
+        <v>1368</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1222</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1286.66666666667</v>
+      </c>
       <c r="O12" s="38"/>
     </row>
     <row r="13" ht="21.6" customHeight="1" spans="1:15">
@@ -3783,15 +3903,27 @@
       <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="16">
+        <v>11268</v>
+      </c>
+      <c r="H13" s="16">
+        <v>11267</v>
+      </c>
+      <c r="I13" s="39">
+        <v>11267.5</v>
+      </c>
       <c r="K13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="40"/>
+      <c r="L13" s="16">
+        <v>1412</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1350</v>
+      </c>
+      <c r="N13" s="40">
+        <v>1388.875</v>
+      </c>
       <c r="O13" s="38"/>
     </row>
     <row r="14" ht="21.6" customHeight="1" spans="1:15">
@@ -3802,15 +3934,27 @@
       <c r="F14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="16">
+        <v>10522</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10522</v>
+      </c>
+      <c r="I14" s="39">
+        <v>10522</v>
+      </c>
       <c r="K14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="40"/>
+      <c r="L14" s="16">
+        <v>1358</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1235</v>
+      </c>
+      <c r="N14" s="40">
+        <v>1292.25</v>
+      </c>
       <c r="O14" s="38"/>
     </row>
     <row r="15" ht="21.6" customHeight="1" spans="1:15">
@@ -3829,36 +3973,66 @@
       <c r="F15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="16">
+        <v>9740</v>
+      </c>
+      <c r="H15" s="16">
+        <v>9372</v>
+      </c>
+      <c r="I15" s="39">
+        <v>9549.85714285714</v>
+      </c>
       <c r="K15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="40"/>
+      <c r="L15" s="16">
+        <v>1233</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1119</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1172.78571428571</v>
+      </c>
       <c r="O15" s="38"/>
     </row>
     <row r="16" ht="21.6" customHeight="1" spans="1:15">
       <c r="A16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="35"/>
+      <c r="B16" s="29">
+        <v>1048</v>
+      </c>
+      <c r="C16" s="29">
+        <v>964</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1018</v>
+      </c>
       <c r="F16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="16">
+        <v>378</v>
+      </c>
+      <c r="H16" s="16">
+        <v>376</v>
+      </c>
+      <c r="I16" s="39">
+        <v>376.666666666667</v>
+      </c>
       <c r="K16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="40"/>
+      <c r="L16" s="16">
+        <v>34</v>
+      </c>
+      <c r="M16" s="16">
+        <v>24</v>
+      </c>
+      <c r="N16" s="40">
+        <v>28.5</v>
+      </c>
       <c r="O16" s="38"/>
     </row>
     <row r="17" ht="21.6" customHeight="1" spans="1:15">
@@ -3871,15 +4045,27 @@
       <c r="F17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="16">
+        <v>11382</v>
+      </c>
+      <c r="H17" s="16">
+        <v>11207</v>
+      </c>
+      <c r="I17" s="39">
+        <v>11303.8</v>
+      </c>
       <c r="K17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="40"/>
+      <c r="L17" s="16">
+        <v>1446</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1279</v>
+      </c>
+      <c r="N17" s="40">
+        <v>1392.55</v>
+      </c>
       <c r="O17" s="38"/>
     </row>
     <row r="18" ht="21.6" customHeight="1" spans="1:15">
@@ -3890,15 +4076,27 @@
       <c r="F18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="16">
+        <v>12296</v>
+      </c>
+      <c r="H18" s="16">
+        <v>11728</v>
+      </c>
+      <c r="I18" s="39">
+        <v>11987.4166666667</v>
+      </c>
       <c r="K18" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="40"/>
+      <c r="L18" s="16">
+        <v>1552</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1486.77083333333</v>
+      </c>
       <c r="O18" s="38"/>
     </row>
     <row r="19" ht="21.6" customHeight="1" spans="1:15">
@@ -3917,36 +4115,66 @@
       <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="16">
+        <v>11429</v>
+      </c>
+      <c r="H19" s="16">
+        <v>11154</v>
+      </c>
+      <c r="I19" s="39">
+        <v>11291.5</v>
+      </c>
       <c r="K19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="40"/>
+      <c r="L19" s="16">
+        <v>1484</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1367</v>
+      </c>
+      <c r="N19" s="40">
+        <v>1415.5</v>
+      </c>
       <c r="O19" s="38"/>
     </row>
     <row r="20" ht="21.6" customHeight="1" spans="1:15">
       <c r="A20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="29">
+        <v>11042</v>
+      </c>
+      <c r="C20" s="29">
+        <v>10564</v>
+      </c>
+      <c r="D20" s="35">
+        <v>10728</v>
+      </c>
       <c r="F20" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="41"/>
+      <c r="G20" s="13">
+        <v>394</v>
+      </c>
+      <c r="H20" s="13">
+        <v>356</v>
+      </c>
+      <c r="I20" s="41">
+        <v>373.083333333333</v>
+      </c>
       <c r="K20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="42"/>
+      <c r="L20" s="13">
+        <v>377</v>
+      </c>
+      <c r="M20" s="13">
+        <v>282</v>
+      </c>
+      <c r="N20" s="42">
+        <v>326.25</v>
+      </c>
       <c r="O20" s="43"/>
     </row>
     <row r="21" ht="21.6" customHeight="1" spans="4:17">

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,26 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28365" windowHeight="12960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
     <sheet name="20200810" sheetId="2" r:id="rId2"/>
     <sheet name="20200811" sheetId="3" r:id="rId3"/>
     <sheet name="20200812" sheetId="4" r:id="rId4"/>
+    <sheet name="20200825" sheetId="5" r:id="rId5"/>
+    <sheet name="20200826" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$F$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'20200810'!$F$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20200811'!$F$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20200812'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20200826'!$F$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
   <si>
     <t>微乐app大厅 2020/7/31 21:30</t>
   </si>
@@ -221,6 +224,150 @@
   </si>
   <si>
     <t>吉祥小程序代理 2020/8/12 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (18)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_通用 (72)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_四川_甘肃_宁夏_云南 (8)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_四川_甘肃_宁夏_云南 (32)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_陕西 (7)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_陕西 (28)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_山西_内蒙 (3)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_山西_内蒙 (12)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_山东 (7)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_山东 (28)</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_辽宁 (9)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_辽宁 (36)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江西_福建 (10)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江西_福建 (40)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江苏_安徽_浙江_上海 (3)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_江苏_安徽_浙江_上海 (12)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_吉林 (11)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_吉林 (44)</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_湖南 (3)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_湖南 (12)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_湖北 (2)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_湖北 (8)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_黑龙江 (8)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_黑龙江 (32)</t>
+  </si>
+  <si>
+    <t>小程序 (20)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_河南 (6)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_河南 (24)</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/25 21:30</t>
+  </si>
+  <si>
+    <t>小游戏大厅_河北_北京_天津 (6)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_河北_北京_天津 (24)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (18)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_贵州 (72)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_广东_广西_海南 (3)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_广东_广西_海南 (12)</t>
+  </si>
+  <si>
+    <t>小程序 (4)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_高防 (18)</t>
+  </si>
+  <si>
+    <t>小游戏大厅_高防 (72)</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/26 21:30</t>
   </si>
 </sst>
 </file>
@@ -228,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -266,6 +413,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -280,92 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,16 +507,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +571,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,21 +942,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -828,17 +960,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,17 +1016,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,130 +1047,130 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3504,7 +3651,7 @@
   <sheetPr/>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -4174,6 +4321,1469 @@
       </c>
       <c r="N20" s="42">
         <v>326.25</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="4" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="9" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="37.5" customWidth="1"/>
+    <col min="12" max="14" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1528</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1360</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1438</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7533</v>
+      </c>
+      <c r="H4" s="16">
+        <v>7486</v>
+      </c>
+      <c r="I4" s="39">
+        <v>7509.61111111111</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1031</v>
+      </c>
+      <c r="M4" s="16">
+        <v>899</v>
+      </c>
+      <c r="N4" s="40">
+        <v>966.430555555556</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="4:15">
+      <c r="D5" s="37"/>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16">
+        <v>6968</v>
+      </c>
+      <c r="H5" s="16">
+        <v>6648</v>
+      </c>
+      <c r="I5" s="39">
+        <v>6799.625</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <v>955</v>
+      </c>
+      <c r="M5" s="16">
+        <v>813</v>
+      </c>
+      <c r="N5" s="40">
+        <v>869.71875</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="4:15">
+      <c r="D6" s="37"/>
+      <c r="F6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6152</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5884</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6042.71428571429</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="16">
+        <v>826</v>
+      </c>
+      <c r="M6" s="16">
+        <v>730</v>
+      </c>
+      <c r="N6" s="40">
+        <v>776.535714285714</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="4:15">
+      <c r="D7" s="37"/>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5931</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5576</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5784.66666666667</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16">
+        <v>795</v>
+      </c>
+      <c r="M7" s="16">
+        <v>678</v>
+      </c>
+      <c r="N7" s="40">
+        <v>741.5</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="4:15">
+      <c r="D8" s="37"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="16">
+        <v>7303</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6938</v>
+      </c>
+      <c r="I8" s="39">
+        <v>7050.57142857143</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="16">
+        <v>955</v>
+      </c>
+      <c r="M8" s="16">
+        <v>841</v>
+      </c>
+      <c r="N8" s="40">
+        <v>903.5</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6860</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6520</v>
+      </c>
+      <c r="I9" s="39">
+        <v>6703</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16">
+        <v>966</v>
+      </c>
+      <c r="M9" s="16">
+        <v>22</v>
+      </c>
+      <c r="N9" s="40">
+        <v>858.694444444444</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7350</v>
+      </c>
+      <c r="H10" s="16">
+        <v>7322</v>
+      </c>
+      <c r="I10" s="39">
+        <v>7338.5</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1004</v>
+      </c>
+      <c r="M10" s="16">
+        <v>883</v>
+      </c>
+      <c r="N10" s="40">
+        <v>939.05</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6838</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6708</v>
+      </c>
+      <c r="I11" s="39">
+        <v>6791.66666666667</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="16">
+        <v>946</v>
+      </c>
+      <c r="M11" s="16">
+        <v>819</v>
+      </c>
+      <c r="N11" s="40">
+        <v>870.583333333333</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1240</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1092</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1155</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>7804</v>
+      </c>
+      <c r="H12" s="16">
+        <v>7488</v>
+      </c>
+      <c r="I12" s="39">
+        <v>7616.72727272727</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1050</v>
+      </c>
+      <c r="M12" s="16">
+        <v>901</v>
+      </c>
+      <c r="N12" s="40">
+        <v>972.795454545455</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16">
+        <v>6779</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6646</v>
+      </c>
+      <c r="I13" s="39">
+        <v>6702.33333333333</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16">
+        <v>904</v>
+      </c>
+      <c r="M13" s="16">
+        <v>813</v>
+      </c>
+      <c r="N13" s="40">
+        <v>857.166666666667</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="16">
+        <v>4883</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4782</v>
+      </c>
+      <c r="I14" s="39">
+        <v>4832.5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16">
+        <v>670</v>
+      </c>
+      <c r="M14" s="16">
+        <v>595</v>
+      </c>
+      <c r="N14" s="40">
+        <v>625.375</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="16">
+        <v>7958</v>
+      </c>
+      <c r="H15" s="16">
+        <v>7662</v>
+      </c>
+      <c r="I15" s="39">
+        <v>7776.625</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1057</v>
+      </c>
+      <c r="M15" s="16">
+        <v>933</v>
+      </c>
+      <c r="N15" s="40">
+        <v>994.875</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>893</v>
+      </c>
+      <c r="C16" s="29">
+        <v>814</v>
+      </c>
+      <c r="D16" s="35">
+        <v>850</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4310</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4065</v>
+      </c>
+      <c r="I16" s="39">
+        <v>4180.16666666667</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16">
+        <v>588</v>
+      </c>
+      <c r="M16" s="16">
+        <v>514</v>
+      </c>
+      <c r="N16" s="40">
+        <v>543.708333333333</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7061</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6878</v>
+      </c>
+      <c r="I17" s="39">
+        <v>6940.5</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="16">
+        <v>966</v>
+      </c>
+      <c r="M17" s="16">
+        <v>825</v>
+      </c>
+      <c r="N17" s="40">
+        <v>888.541666666667</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16">
+        <v>6962</v>
+      </c>
+      <c r="H18" s="16">
+        <v>6572</v>
+      </c>
+      <c r="I18" s="39">
+        <v>6784.88888888889</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="16">
+        <v>928</v>
+      </c>
+      <c r="M18" s="16">
+        <v>826</v>
+      </c>
+      <c r="N18" s="40">
+        <v>874.444444444444</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6258</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6084</v>
+      </c>
+      <c r="I19" s="39">
+        <v>6198</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="16">
+        <v>857</v>
+      </c>
+      <c r="M19" s="16">
+        <v>769</v>
+      </c>
+      <c r="N19" s="40">
+        <v>806.166666666667</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8506</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8270</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8384</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13">
+        <v>51</v>
+      </c>
+      <c r="H20" s="13">
+        <v>20</v>
+      </c>
+      <c r="I20" s="41">
+        <v>37.3333333333333</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="13">
+        <v>15</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>8.77777777777778</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="4:17">
+      <c r="D21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="14:17">
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="20" customHeight="1"/>
+    <row r="24" ht="20" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1"/>
+    <row r="26" ht="20" customHeight="1"/>
+    <row r="27" ht="20" customHeight="1"/>
+    <row r="28" ht="20" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1"/>
+    <row r="30" ht="20" customHeight="1"/>
+    <row r="31" ht="20" customHeight="1"/>
+    <row r="32" ht="20" customHeight="1"/>
+    <row r="33" ht="20" customHeight="1"/>
+    <row r="34" ht="20" customHeight="1"/>
+    <row r="35" ht="20" customHeight="1"/>
+    <row r="36" ht="20" customHeight="1"/>
+    <row r="37" ht="20" customHeight="1"/>
+    <row r="38" ht="20" customHeight="1"/>
+    <row r="39" ht="20" customHeight="1"/>
+    <row r="40" ht="20" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1649</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1433</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1547</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8245</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8196</v>
+      </c>
+      <c r="I4" s="39">
+        <v>8216.55555555555</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1115</v>
+      </c>
+      <c r="M4" s="16">
+        <v>997</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1056.86111111111</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7578</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7238</v>
+      </c>
+      <c r="I5" s="39">
+        <v>7371.875</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1003</v>
+      </c>
+      <c r="M5" s="16">
+        <v>877</v>
+      </c>
+      <c r="N5" s="40">
+        <v>941.1875</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6378</v>
+      </c>
+      <c r="H6" s="16">
+        <v>6160</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6302</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="16">
+        <v>852</v>
+      </c>
+      <c r="M6" s="16">
+        <v>762</v>
+      </c>
+      <c r="N6" s="40">
+        <v>807.5</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5996</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5830</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5892.66666666667</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16">
+        <v>795</v>
+      </c>
+      <c r="M7" s="16">
+        <v>721</v>
+      </c>
+      <c r="N7" s="40">
+        <v>756.916666666667</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="16">
+        <v>8166</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8016</v>
+      </c>
+      <c r="I8" s="39">
+        <v>8066.28571428571</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1102</v>
+      </c>
+      <c r="M8" s="16">
+        <v>958</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1029.10714285714</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>8493</v>
+      </c>
+      <c r="H9" s="16">
+        <v>8190</v>
+      </c>
+      <c r="I9" s="39">
+        <v>8370.44444444445</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1134</v>
+      </c>
+      <c r="M9" s="16">
+        <v>991</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1066.22222222222</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8336</v>
+      </c>
+      <c r="H10" s="16">
+        <v>8278</v>
+      </c>
+      <c r="I10" s="39">
+        <v>8297.5</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1118</v>
+      </c>
+      <c r="M10" s="16">
+        <v>968</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1058.75</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16">
+        <v>7665</v>
+      </c>
+      <c r="H11" s="16">
+        <v>7398</v>
+      </c>
+      <c r="I11" s="39">
+        <v>7514.33333333333</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1024</v>
+      </c>
+      <c r="M11" s="16">
+        <v>904</v>
+      </c>
+      <c r="N11" s="40">
+        <v>961.666666666667</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1241</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1119</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1173</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>8337</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8105</v>
+      </c>
+      <c r="I12" s="39">
+        <v>8221.90909090909</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1106</v>
+      </c>
+      <c r="M12" s="16">
+        <v>988</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1048.65909090909</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7289</v>
+      </c>
+      <c r="H13" s="16">
+        <v>7191</v>
+      </c>
+      <c r="I13" s="39">
+        <v>7248</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16">
+        <v>983</v>
+      </c>
+      <c r="M13" s="16">
+        <v>855</v>
+      </c>
+      <c r="N13" s="40">
+        <v>921.666666666667</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5183</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5092</v>
+      </c>
+      <c r="I14" s="39">
+        <v>5137.5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16">
+        <v>698</v>
+      </c>
+      <c r="M14" s="16">
+        <v>633</v>
+      </c>
+      <c r="N14" s="40">
+        <v>660.875</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="16">
+        <v>8132</v>
+      </c>
+      <c r="H15" s="16">
+        <v>7842</v>
+      </c>
+      <c r="I15" s="39">
+        <v>7990.25</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1105</v>
+      </c>
+      <c r="M15" s="16">
+        <v>961</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1021.375</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="29">
+        <v>869</v>
+      </c>
+      <c r="D16" s="35">
+        <v>909</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4748</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4580</v>
+      </c>
+      <c r="I16" s="39">
+        <v>4646.16666666667</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16">
+        <v>630</v>
+      </c>
+      <c r="M16" s="16">
+        <v>534</v>
+      </c>
+      <c r="N16" s="40">
+        <v>600.333333333333</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7736</v>
+      </c>
+      <c r="H17" s="16">
+        <v>7546</v>
+      </c>
+      <c r="I17" s="39">
+        <v>7637.16666666667</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1049</v>
+      </c>
+      <c r="M17" s="16">
+        <v>925</v>
+      </c>
+      <c r="N17" s="40">
+        <v>976.833333333333</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8008</v>
+      </c>
+      <c r="H18" s="16">
+        <v>7748</v>
+      </c>
+      <c r="I18" s="39">
+        <v>7874.55555555556</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1083</v>
+      </c>
+      <c r="M18" s="16">
+        <v>900</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1012.18055555556</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16">
+        <v>7400</v>
+      </c>
+      <c r="H19" s="16">
+        <v>7140</v>
+      </c>
+      <c r="I19" s="39">
+        <v>7268.66666666667</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="16">
+        <v>979</v>
+      </c>
+      <c r="M19" s="16">
+        <v>904</v>
+      </c>
+      <c r="N19" s="40">
+        <v>944.333333333333</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="29">
+        <v>9085</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8736</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8959</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13">
+        <v>50</v>
+      </c>
+      <c r="H20" s="13">
+        <v>22</v>
+      </c>
+      <c r="I20" s="41">
+        <v>40.5</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="13">
+        <v>20</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>9.16666666666667</v>
       </c>
       <c r="O20" s="43"/>
     </row>

--- a/数据统计/微乐吉祥中班统计负荷模板.xlsx
+++ b/数据统计/微乐吉祥中班统计负荷模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12960" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="20200812" sheetId="4" r:id="rId4"/>
     <sheet name="20200825" sheetId="5" r:id="rId5"/>
     <sheet name="20200826" sheetId="6" r:id="rId6"/>
+    <sheet name="20200827" sheetId="7" r:id="rId7"/>
+    <sheet name="20200828" sheetId="8" r:id="rId8"/>
+    <sheet name="20200829" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$F$1:$I$20</definedName>
@@ -20,13 +23,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20200811'!$F$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20200812'!$F$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20200826'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20200827'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20200828'!$F$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'20200829'!$F$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="132">
   <si>
     <t>微乐app大厅 2020/7/31 21:30</t>
   </si>
@@ -368,6 +374,60 @@
   </si>
   <si>
     <t>吉祥小程序代理 2020/8/26 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/27 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/28 21:30</t>
+  </si>
+  <si>
+    <t>微乐app大厅 2020/8/29 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序代理 2020/8/29 21:30</t>
+  </si>
+  <si>
+    <t>微乐小程序大厅 2020/8/29 21:30</t>
+  </si>
+  <si>
+    <t>吉祥app大厅 2020/8/29 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序大厅 2020/8/29 21:30</t>
+  </si>
+  <si>
+    <t>吉祥小程序代理 2020/8/29 21:30</t>
   </si>
 </sst>
 </file>
@@ -375,9 +435,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -406,40 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,6 +496,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -469,14 +534,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,11 +587,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,42 +607,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,25 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,18 +649,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,6 +656,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,85 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,17 +987,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,30 +1006,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -996,13 +1026,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,6 +1058,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1032,10 +1092,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,133 +1104,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5114,8 +5174,8 @@
   <sheetPr/>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -5784,6 +5844,2220 @@
       </c>
       <c r="N20" s="42">
         <v>9.16666666666667</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1623</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1441</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1541</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8414</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8344</v>
+      </c>
+      <c r="I4" s="39">
+        <v>8388.5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1165</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1025</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1078.59722222222</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7828</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7418</v>
+      </c>
+      <c r="I5" s="39">
+        <v>7657.125</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1055</v>
+      </c>
+      <c r="M5" s="16">
+        <v>925</v>
+      </c>
+      <c r="N5" s="40">
+        <v>979.4375</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6866</v>
+      </c>
+      <c r="H6" s="16">
+        <v>6472</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6656.28571428571</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="16">
+        <v>931</v>
+      </c>
+      <c r="M6" s="16">
+        <v>784</v>
+      </c>
+      <c r="N6" s="40">
+        <v>851.178571428571</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6208</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5998</v>
+      </c>
+      <c r="I7" s="39">
+        <v>6118</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16">
+        <v>840</v>
+      </c>
+      <c r="M7" s="16">
+        <v>721</v>
+      </c>
+      <c r="N7" s="40">
+        <v>788.666666666667</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="16">
+        <v>7914</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7708</v>
+      </c>
+      <c r="I8" s="39">
+        <v>7760.14285714286</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1063</v>
+      </c>
+      <c r="M8" s="16">
+        <v>942</v>
+      </c>
+      <c r="N8" s="40">
+        <v>992.535714285714</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>8270</v>
+      </c>
+      <c r="H9" s="16">
+        <v>8024</v>
+      </c>
+      <c r="I9" s="39">
+        <v>8116.88888888889</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1124</v>
+      </c>
+      <c r="M9" s="16">
+        <v>959</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1033.33333333333</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8432</v>
+      </c>
+      <c r="H10" s="16">
+        <v>8398</v>
+      </c>
+      <c r="I10" s="39">
+        <v>8410.6</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1128</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1012</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1069.8</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16">
+        <v>7258</v>
+      </c>
+      <c r="H11" s="16">
+        <v>7134</v>
+      </c>
+      <c r="I11" s="39">
+        <v>7189.66666666667</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="16">
+        <v>992</v>
+      </c>
+      <c r="M11" s="16">
+        <v>853</v>
+      </c>
+      <c r="N11" s="40">
+        <v>924.916666666667</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1269</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1144</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1210</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>9280</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8796</v>
+      </c>
+      <c r="I12" s="39">
+        <v>8987.27272727273</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1217</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1055</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1143.77272727273</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7523</v>
+      </c>
+      <c r="H13" s="16">
+        <v>7376</v>
+      </c>
+      <c r="I13" s="39">
+        <v>7443.33333333333</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16">
+        <v>962</v>
+      </c>
+      <c r="M13" s="16">
+        <v>904</v>
+      </c>
+      <c r="N13" s="40">
+        <v>942.666666666667</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5177</v>
+      </c>
+      <c r="H14" s="16">
+        <v>5092</v>
+      </c>
+      <c r="I14" s="39">
+        <v>5134.5</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16">
+        <v>680</v>
+      </c>
+      <c r="M14" s="16">
+        <v>617</v>
+      </c>
+      <c r="N14" s="40">
+        <v>654</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="16">
+        <v>8766</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8429</v>
+      </c>
+      <c r="I15" s="39">
+        <v>8638.625</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1144</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1007</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1101.8125</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>901</v>
+      </c>
+      <c r="C16" s="29">
+        <v>754</v>
+      </c>
+      <c r="D16" s="35">
+        <v>843</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4777</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4627</v>
+      </c>
+      <c r="I16" s="39">
+        <v>4699</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16">
+        <v>649</v>
+      </c>
+      <c r="M16" s="16">
+        <v>554</v>
+      </c>
+      <c r="N16" s="40">
+        <v>608.583333333333</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7846</v>
+      </c>
+      <c r="H17" s="16">
+        <v>7734</v>
+      </c>
+      <c r="I17" s="39">
+        <v>7794</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="16">
+        <v>1065</v>
+      </c>
+      <c r="M17" s="16">
+        <v>917</v>
+      </c>
+      <c r="N17" s="40">
+        <v>993.708333333333</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8190</v>
+      </c>
+      <c r="H18" s="16">
+        <v>7854</v>
+      </c>
+      <c r="I18" s="39">
+        <v>7995.27777777778</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1095</v>
+      </c>
+      <c r="M18" s="16">
+        <v>966</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1026.95833333333</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6960</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6875</v>
+      </c>
+      <c r="I19" s="39">
+        <v>6928</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="16">
+        <v>931</v>
+      </c>
+      <c r="M19" s="16">
+        <v>860</v>
+      </c>
+      <c r="N19" s="40">
+        <v>893.416666666667</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8475</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8106</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8307</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13">
+        <v>50</v>
+      </c>
+      <c r="H20" s="13">
+        <v>29</v>
+      </c>
+      <c r="I20" s="41">
+        <v>41.2777777777778</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="13">
+        <v>17</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>9.15277777777778</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1598</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1401</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1512</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8050</v>
+      </c>
+      <c r="H4" s="16">
+        <v>7982</v>
+      </c>
+      <c r="I4" s="39">
+        <v>8023.55555555556</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1102</v>
+      </c>
+      <c r="M4" s="16">
+        <v>948</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1030.81944444444</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7569</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7164</v>
+      </c>
+      <c r="I5" s="39">
+        <v>7356.625</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <v>985</v>
+      </c>
+      <c r="M5" s="16">
+        <v>871</v>
+      </c>
+      <c r="N5" s="40">
+        <v>937.8125</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6236</v>
+      </c>
+      <c r="H6" s="16">
+        <v>6076</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6137</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="16">
+        <v>839</v>
+      </c>
+      <c r="M6" s="16">
+        <v>714</v>
+      </c>
+      <c r="N6" s="40">
+        <v>787.285714285714</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5666</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5626</v>
+      </c>
+      <c r="I7" s="39">
+        <v>5640.66666666667</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16">
+        <v>754</v>
+      </c>
+      <c r="M7" s="16">
+        <v>681</v>
+      </c>
+      <c r="N7" s="40">
+        <v>724.75</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="16">
+        <v>7425</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7242</v>
+      </c>
+      <c r="I8" s="39">
+        <v>7320.57142857143</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="16">
+        <v>993</v>
+      </c>
+      <c r="M8" s="16">
+        <v>882</v>
+      </c>
+      <c r="N8" s="40">
+        <v>933.107142857143</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7666</v>
+      </c>
+      <c r="H9" s="16">
+        <v>7252</v>
+      </c>
+      <c r="I9" s="39">
+        <v>7413.88888888889</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1023</v>
+      </c>
+      <c r="M9" s="16">
+        <v>902</v>
+      </c>
+      <c r="N9" s="40">
+        <v>946.666666666667</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7962</v>
+      </c>
+      <c r="H10" s="16">
+        <v>7932</v>
+      </c>
+      <c r="I10" s="39">
+        <v>7948.5</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1061</v>
+      </c>
+      <c r="M10" s="16">
+        <v>954</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1016.35</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6969</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6730</v>
+      </c>
+      <c r="I11" s="39">
+        <v>6883.66666666667</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="16">
+        <v>942</v>
+      </c>
+      <c r="M11" s="16">
+        <v>841</v>
+      </c>
+      <c r="N11" s="40">
+        <v>881.916666666667</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1231</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1139</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1183</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>8764</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8466</v>
+      </c>
+      <c r="I12" s="39">
+        <v>8658.90909090909</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1166</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1032</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1103.38636363636</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7137</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6891</v>
+      </c>
+      <c r="I13" s="39">
+        <v>6991</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16">
+        <v>939</v>
+      </c>
+      <c r="M13" s="16">
+        <v>847</v>
+      </c>
+      <c r="N13" s="40">
+        <v>890.333333333333</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5078</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4920</v>
+      </c>
+      <c r="I14" s="39">
+        <v>4999</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16">
+        <v>675</v>
+      </c>
+      <c r="M14" s="16">
+        <v>621</v>
+      </c>
+      <c r="N14" s="40">
+        <v>646.125</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="16">
+        <v>8610</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8217</v>
+      </c>
+      <c r="I15" s="39">
+        <v>8450.25</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1136</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1011</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1076.625</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>885</v>
+      </c>
+      <c r="C16" s="29">
+        <v>806</v>
+      </c>
+      <c r="D16" s="35">
+        <v>836</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4658</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4390</v>
+      </c>
+      <c r="I16" s="39">
+        <v>4552</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16">
+        <v>631</v>
+      </c>
+      <c r="M16" s="16">
+        <v>560</v>
+      </c>
+      <c r="N16" s="40">
+        <v>588.416666666667</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7482</v>
+      </c>
+      <c r="H17" s="16">
+        <v>7112</v>
+      </c>
+      <c r="I17" s="39">
+        <v>7287.33333333333</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="16">
+        <v>982</v>
+      </c>
+      <c r="M17" s="16">
+        <v>874</v>
+      </c>
+      <c r="N17" s="40">
+        <v>931.791666666667</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8184</v>
+      </c>
+      <c r="H18" s="16">
+        <v>7880</v>
+      </c>
+      <c r="I18" s="39">
+        <v>8085.72222222222</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1094</v>
+      </c>
+      <c r="M18" s="16">
+        <v>978</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1039.27777777778</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6475</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6298</v>
+      </c>
+      <c r="I19" s="39">
+        <v>6372</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="16">
+        <v>907</v>
+      </c>
+      <c r="M19" s="16">
+        <v>768</v>
+      </c>
+      <c r="N19" s="40">
+        <v>829.666666666667</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8314</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8208</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8256</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13">
+        <v>54</v>
+      </c>
+      <c r="H20" s="13">
+        <v>24</v>
+      </c>
+      <c r="I20" s="41">
+        <v>39.2777777777778</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="13">
+        <v>15</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>8.90277777777778</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" ht="21.6" customHeight="1" spans="4:17">
+      <c r="D21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" ht="21.6" customHeight="1" spans="14:17">
+      <c r="N22" s="17"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" ht="21.6" customHeight="1"/>
+    <row r="24" ht="21.6" customHeight="1"/>
+    <row r="25" ht="21.6" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="28" ht="21.6" customHeight="1"/>
+    <row r="29" ht="21.6" customHeight="1"/>
+    <row r="30" ht="21.6" customHeight="1"/>
+    <row r="31" ht="21.6" customHeight="1"/>
+    <row r="32" ht="21.6" customHeight="1"/>
+    <row r="33" ht="21.6" customHeight="1"/>
+    <row r="34" ht="21.6" customHeight="1"/>
+    <row r="35" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L4:N20 B16:D16 B12:D12 B4:D4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:I20 B20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1048576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1572</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1410</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1482</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16">
+        <v>8157</v>
+      </c>
+      <c r="H4" s="16">
+        <v>8090</v>
+      </c>
+      <c r="I4" s="39">
+        <v>8118.22222222222</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1111</v>
+      </c>
+      <c r="M4" s="16">
+        <v>973</v>
+      </c>
+      <c r="N4" s="40">
+        <v>1038.68055555556</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16">
+        <v>7928</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7640</v>
+      </c>
+      <c r="I5" s="39">
+        <v>7787.75</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="16">
+        <v>1051</v>
+      </c>
+      <c r="M5" s="16">
+        <v>943</v>
+      </c>
+      <c r="N5" s="40">
+        <v>994.53125</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6412</v>
+      </c>
+      <c r="H6" s="16">
+        <v>5975</v>
+      </c>
+      <c r="I6" s="39">
+        <v>6193.14285714286</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="16">
+        <v>844</v>
+      </c>
+      <c r="M6" s="16">
+        <v>739</v>
+      </c>
+      <c r="N6" s="40">
+        <v>795.464285714286</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D7" s="17"/>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6274</v>
+      </c>
+      <c r="H7" s="16">
+        <v>6186</v>
+      </c>
+      <c r="I7" s="39">
+        <v>6222</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="16">
+        <v>861</v>
+      </c>
+      <c r="M7" s="16">
+        <v>726</v>
+      </c>
+      <c r="N7" s="40">
+        <v>792.333333333333</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="21.6" customHeight="1" spans="4:15">
+      <c r="D8" s="17"/>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="16">
+        <v>7344</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7012</v>
+      </c>
+      <c r="I8" s="39">
+        <v>7236.28571428571</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="16">
+        <v>980</v>
+      </c>
+      <c r="M8" s="16">
+        <v>873</v>
+      </c>
+      <c r="N8" s="40">
+        <v>923.535714285714</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <v>7260</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6971</v>
+      </c>
+      <c r="I9" s="39">
+        <v>7106</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="16">
+        <v>967</v>
+      </c>
+      <c r="M9" s="16">
+        <v>843</v>
+      </c>
+      <c r="N9" s="40">
+        <v>910.5</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="16">
+        <v>7946</v>
+      </c>
+      <c r="H10" s="16">
+        <v>7882</v>
+      </c>
+      <c r="I10" s="39">
+        <v>7916.7</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1087</v>
+      </c>
+      <c r="M10" s="16">
+        <v>935</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1005.875</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6993</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6851</v>
+      </c>
+      <c r="I11" s="39">
+        <v>6905.33333333333</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="16">
+        <v>934</v>
+      </c>
+      <c r="M11" s="16">
+        <v>812</v>
+      </c>
+      <c r="N11" s="40">
+        <v>886.333333333333</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1281</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1125</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1190</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="16">
+        <v>8743</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8356</v>
+      </c>
+      <c r="I12" s="39">
+        <v>8499.63636363636</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1176</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1022</v>
+      </c>
+      <c r="N12" s="40">
+        <v>1081.95454545455</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A13" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7401</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6957</v>
+      </c>
+      <c r="I13" s="39">
+        <v>7162.33333333333</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16">
+        <v>973</v>
+      </c>
+      <c r="M13" s="16">
+        <v>829</v>
+      </c>
+      <c r="N13" s="40">
+        <v>904.416666666667</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5096</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4910</v>
+      </c>
+      <c r="I14" s="39">
+        <v>5003</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="16">
+        <v>698</v>
+      </c>
+      <c r="M14" s="16">
+        <v>608</v>
+      </c>
+      <c r="N14" s="40">
+        <v>640.875</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="16">
+        <v>8554</v>
+      </c>
+      <c r="H15" s="16">
+        <v>8422</v>
+      </c>
+      <c r="I15" s="39">
+        <v>8498.875</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1161</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1024</v>
+      </c>
+      <c r="N15" s="40">
+        <v>1085.9375</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A16" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>902</v>
+      </c>
+      <c r="C16" s="29">
+        <v>809</v>
+      </c>
+      <c r="D16" s="35">
+        <v>851</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4569</v>
+      </c>
+      <c r="H16" s="16">
+        <v>4443</v>
+      </c>
+      <c r="I16" s="39">
+        <v>4492.16666666667</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="16">
+        <v>630</v>
+      </c>
+      <c r="M16" s="16">
+        <v>528</v>
+      </c>
+      <c r="N16" s="40">
+        <v>580.625</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7295</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6968</v>
+      </c>
+      <c r="I17" s="39">
+        <v>7142.16666666667</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="16">
+        <v>990</v>
+      </c>
+      <c r="M17" s="16">
+        <v>835</v>
+      </c>
+      <c r="N17" s="40">
+        <v>912.416666666667</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8091</v>
+      </c>
+      <c r="H18" s="16">
+        <v>7724</v>
+      </c>
+      <c r="I18" s="39">
+        <v>7846.83333333333</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1095</v>
+      </c>
+      <c r="M18" s="16">
+        <v>921</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1007.83333333333</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="16">
+        <v>6376</v>
+      </c>
+      <c r="H19" s="16">
+        <v>6271</v>
+      </c>
+      <c r="I19" s="39">
+        <v>6335</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="16">
+        <v>849</v>
+      </c>
+      <c r="M19" s="16">
+        <v>794</v>
+      </c>
+      <c r="N19" s="40">
+        <v>826</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="21.6" customHeight="1" spans="1:15">
+      <c r="A20" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8494</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8304</v>
+      </c>
+      <c r="D20" s="35">
+        <v>8384</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13">
+        <v>50</v>
+      </c>
+      <c r="H20" s="13">
+        <v>20</v>
+      </c>
+      <c r="I20" s="41">
+        <v>37.1111111111111</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="13">
+        <v>18</v>
+      </c>
+      <c r="M20" s="13">
+        <v>7</v>
+      </c>
+      <c r="N20" s="42">
+        <v>8.95833333333333</v>
       </c>
       <c r="O20" s="43"/>
     </row>
